--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 4-23-2018.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 4-23-2018.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{199D87A3-5A63-48FE-8AFC-91D36DA50433}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E35590B0-D2FE-4BA3-A0AB-ECFA704C3929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="88">
   <si>
     <t xml:space="preserve">system </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +328,46 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>(7,7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(14,14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(21,21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.C. CPMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N_{up},N_{dn})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -398,220 +435,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5">
-            <v>0.16903684319216999</v>
-          </cell>
-          <cell r="B5">
-            <v>-3.4914193109240897E-2</v>
-          </cell>
-          <cell r="C5">
-            <v>4.0111068745885201E-3</v>
-          </cell>
-          <cell r="D5">
-            <v>-1.1466982492052899E-3</v>
-          </cell>
-          <cell r="E5">
-            <v>-1.4730220881826301E-3</v>
-          </cell>
-          <cell r="F5">
-            <v>-1.10384906517237E-4</v>
-          </cell>
-          <cell r="G5">
-            <v>-1.45556183405284E-3</v>
-          </cell>
-          <cell r="H5">
-            <v>1.1123564812020601E-3</v>
-          </cell>
-          <cell r="I5">
-            <v>-1.55396306175912E-3</v>
-          </cell>
-          <cell r="J5">
-            <v>1.1123564812020601E-3</v>
-          </cell>
-          <cell r="K5">
-            <v>-1.45556183405284E-3</v>
-          </cell>
-          <cell r="L5">
-            <v>-1.10384906517237E-4</v>
-          </cell>
-          <cell r="M5">
-            <v>-1.4730220881826301E-3</v>
-          </cell>
-          <cell r="N5">
-            <v>-1.1466982492052899E-3</v>
-          </cell>
-          <cell r="O5">
-            <v>4.0111068745885201E-3</v>
-          </cell>
-          <cell r="P5">
-            <v>-3.4914193109240897E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>-3.9883034438694398E-2</v>
-          </cell>
-          <cell r="B6">
-            <v>7.4484013025477797E-3</v>
-          </cell>
-          <cell r="C6">
-            <v>-3.8007481135640402E-3</v>
-          </cell>
-          <cell r="D6">
-            <v>9.7149640020669599E-4</v>
-          </cell>
-          <cell r="E6">
-            <v>-1.5423788831793299E-4</v>
-          </cell>
-          <cell r="F6">
-            <v>-6.8062188896836199E-4</v>
-          </cell>
-          <cell r="G6">
-            <v>8.4883492380045001E-4</v>
-          </cell>
-          <cell r="H6">
-            <v>-1.02619193198863E-3</v>
-          </cell>
-          <cell r="I6">
-            <v>8.1906594195551403E-4</v>
-          </cell>
-          <cell r="J6">
-            <v>-8.7832250311090803E-4</v>
-          </cell>
-          <cell r="K6">
-            <v>8.55319901223214E-4</v>
-          </cell>
-          <cell r="L6">
-            <v>-3.8287825638026198E-4</v>
-          </cell>
-          <cell r="M6">
-            <v>-1.7306880700668E-4</v>
-          </cell>
-          <cell r="N6">
-            <v>8.3163050344622999E-4</v>
-          </cell>
-          <cell r="O6">
-            <v>-3.9547926166416296E-3</v>
-          </cell>
-          <cell r="P6">
-            <v>7.3333627856928402E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>9.0303786919618007E-3</v>
-          </cell>
-          <cell r="B7">
-            <v>-1.8048293600938702E-2</v>
-          </cell>
-          <cell r="C7">
-            <v>1.75421940968069E-3</v>
-          </cell>
-          <cell r="D7">
-            <v>-5.5714226999459202E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>4.2040958082398798E-4</v>
-          </cell>
-          <cell r="F7">
-            <v>6.5676343923326498E-4</v>
-          </cell>
-          <cell r="G7">
-            <v>-1.66807643601808E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>1.0117482058117501E-3</v>
-          </cell>
-          <cell r="I7">
-            <v>-2.0195915852492001E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>1.0117482058117501E-3</v>
-          </cell>
-          <cell r="K7">
-            <v>-1.66807643601808E-3</v>
-          </cell>
-          <cell r="L7">
-            <v>6.5676343923326498E-4</v>
-          </cell>
-          <cell r="M7">
-            <v>4.2040958082398798E-4</v>
-          </cell>
-          <cell r="N7">
-            <v>-5.5714226999459202E-3</v>
-          </cell>
-          <cell r="O7">
-            <v>1.75421940968069E-3</v>
-          </cell>
-          <cell r="P7">
-            <v>-1.8048293600938702E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>-3.9883034438694398E-2</v>
-          </cell>
-          <cell r="B8">
-            <v>7.3333627856928402E-3</v>
-          </cell>
-          <cell r="C8">
-            <v>-3.9547926166416296E-3</v>
-          </cell>
-          <cell r="D8">
-            <v>8.3163050344622999E-4</v>
-          </cell>
-          <cell r="E8">
-            <v>-1.7306880700668E-4</v>
-          </cell>
-          <cell r="F8">
-            <v>-3.8287825638026198E-4</v>
-          </cell>
-          <cell r="G8">
-            <v>8.55319901223214E-4</v>
-          </cell>
-          <cell r="H8">
-            <v>-8.7832250311090803E-4</v>
-          </cell>
-          <cell r="I8">
-            <v>8.1906594195551403E-4</v>
-          </cell>
-          <cell r="J8">
-            <v>-1.02619193198863E-3</v>
-          </cell>
-          <cell r="K8">
-            <v>8.4883492380045001E-4</v>
-          </cell>
-          <cell r="L8">
-            <v>-6.8062188896836199E-4</v>
-          </cell>
-          <cell r="M8">
-            <v>-1.5423788831793299E-4</v>
-          </cell>
-          <cell r="N8">
-            <v>9.7149640020669501E-4</v>
-          </cell>
-          <cell r="O8">
-            <v>-3.8007481135640402E-3</v>
-          </cell>
-          <cell r="P8">
-            <v>7.4484013025477797E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R167" workbookViewId="0">
-      <selection activeCell="X172" sqref="X172:AM175"/>
+    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,8 +711,9 @@
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="33.625" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="13.625" customWidth="1"/>
@@ -1289,6 +1113,9 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
       <c r="G20" t="s">
         <v>73</v>
       </c>
@@ -2314,7 +2141,7 @@
         <v>-15.744</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K93" si="0">((H78-J78)/J78)*100</f>
+        <f t="shared" ref="K78:K88" si="0">((H78-J78)/J78)*100</f>
         <v>0.37025392891674852</v>
       </c>
     </row>
@@ -2678,41 +2505,81 @@
         <v>-0.36409784622745639</v>
       </c>
     </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89">
+        <v>-48.38039308085915</v>
+      </c>
+      <c r="H89">
+        <v>-48.445681226680058</v>
+      </c>
+      <c r="I89">
+        <v>1.1594626201306562E-2</v>
+      </c>
+      <c r="J89">
+        <v>-48.439700000000002</v>
+      </c>
+      <c r="K89">
+        <f>((H89-J89)/J89)*100</f>
+        <v>1.2347778124258193E-2</v>
+      </c>
+    </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90" t="s">
-        <v>60</v>
-      </c>
-      <c r="I90" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="G90">
+        <v>-40.876976763620142</v>
+      </c>
+      <c r="H90">
+        <v>-40.929333870285014</v>
+      </c>
+      <c r="I90">
+        <v>2.786377276334169E-2</v>
+      </c>
+      <c r="J90">
+        <v>-40.779000000000003</v>
+      </c>
+      <c r="K90">
+        <f>((H90-J90)/J90)*100</f>
+        <v>0.3686551173030484</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
         <v>54</v>
@@ -2730,91 +2597,19 @@
         <v>20</v>
       </c>
       <c r="G91">
-        <v>-48.38039308085915</v>
+        <v>-36.119039014675067</v>
       </c>
       <c r="H91">
-        <v>-48.445681226680058</v>
+        <v>-35.764707893699764</v>
       </c>
       <c r="I91">
-        <v>1.1594626201306562E-2</v>
+        <v>5.7420490610683918E-2</v>
       </c>
       <c r="J91">
-        <v>-48.439700000000002</v>
+        <v>-35.813299999999998</v>
       </c>
       <c r="K91">
-        <f t="shared" si="0"/>
-        <v>1.2347778124258193E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92">
-        <v>-40.876976763620142</v>
-      </c>
-      <c r="H92">
-        <v>-40.929333870285014</v>
-      </c>
-      <c r="I92">
-        <v>2.786377276334169E-2</v>
-      </c>
-      <c r="J92">
-        <v>-40.779000000000003</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="0"/>
-        <v>0.3686551173030484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93">
-        <v>-36.119039014675067</v>
-      </c>
-      <c r="H93">
-        <v>-35.764707893699764</v>
-      </c>
-      <c r="I93">
-        <v>5.7420490610683918E-2</v>
-      </c>
-      <c r="J93">
-        <v>-35.813299999999998</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="0"/>
+        <f>((H91-J91)/J91)*100</f>
         <v>-0.13568173360241501</v>
       </c>
     </row>
@@ -3103,6 +2898,714 @@
       </c>
       <c r="K109">
         <v>-9.8542471799999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116">
+        <v>-4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116">
+        <v>-15.849136410604128</v>
+      </c>
+      <c r="G116">
+        <v>-15.734473180869809</v>
+      </c>
+      <c r="H116">
+        <v>9.3943462832348518E-3</v>
+      </c>
+      <c r="I116">
+        <v>-15.766049300000001</v>
+      </c>
+      <c r="J116">
+        <f>((G116-I116)/I116)*100</f>
+        <v>-0.2002792109129794</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117">
+        <v>-4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117">
+        <v>-15.590541058242788</v>
+      </c>
+      <c r="G117">
+        <v>-15.802292778568653</v>
+      </c>
+      <c r="H117">
+        <v>5.7916395197160396E-3</v>
+      </c>
+      <c r="I117">
+        <v>-15.744</v>
+      </c>
+      <c r="J117">
+        <f t="shared" ref="J117:J127" si="3">((G117-I117)/I117)*100</f>
+        <v>0.37025392891674852</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118">
+        <v>-8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118">
+        <v>-12.218520414163388</v>
+      </c>
+      <c r="G118">
+        <v>-12.058836130111564</v>
+      </c>
+      <c r="H118">
+        <v>3.900852742154795E-2</v>
+      </c>
+      <c r="I118">
+        <v>-11.875287</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="3"/>
+        <v>1.5456395294830643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119">
+        <v>-12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119">
+        <v>-10.5287446847267</v>
+      </c>
+      <c r="G119">
+        <v>-9.9309544991043293</v>
+      </c>
+      <c r="H119">
+        <v>3.6520317289402665E-2</v>
+      </c>
+      <c r="I119" s="2">
+        <v>-10.0543472</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="3"/>
+        <v>-1.22725720965426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120">
+        <v>-4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120">
+        <v>-32.989975207364616</v>
+      </c>
+      <c r="G120">
+        <v>-33.076687372807498</v>
+      </c>
+      <c r="H120">
+        <v>1.1285221286246252E-2</v>
+      </c>
+      <c r="I120">
+        <v>-33.079059999999998</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="3"/>
+        <v>-7.1725955710348977E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121">
+        <v>-4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121">
+        <v>-32.925870810287414</v>
+      </c>
+      <c r="G121">
+        <v>-33.080201184034792</v>
+      </c>
+      <c r="H121">
+        <v>1.0049405130263284E-2</v>
+      </c>
+      <c r="I121">
+        <v>-33.079059999999998</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="3"/>
+        <v>3.4498683904356448E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122">
+        <v>-8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122">
+        <v>-24.71696698975186</v>
+      </c>
+      <c r="G122">
+        <v>-24.539153401025501</v>
+      </c>
+      <c r="H122">
+        <v>5.0115790657509672E-2</v>
+      </c>
+      <c r="I122">
+        <v>-24.646602189999999</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="3"/>
+        <v>-0.4359578174150664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123">
+        <v>-12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123">
+        <v>-21.014615385230201</v>
+      </c>
+      <c r="G123">
+        <v>-20.38908399</v>
+      </c>
+      <c r="H123">
+        <v>0.14362547000000001</v>
+      </c>
+      <c r="I123">
+        <v>-20.734259300000002</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="3"/>
+        <v>-1.6647583354955044</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124">
+        <v>-12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124">
+        <v>-20.110420729901428</v>
+      </c>
+      <c r="G124">
+        <v>-20.501226030000002</v>
+      </c>
+      <c r="H124">
+        <v>0.14387467000000001</v>
+      </c>
+      <c r="I124">
+        <v>-20.734259300000002</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="3"/>
+        <v>-1.1239044840150136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125">
+        <v>-4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125">
+        <v>-31.737796709643668</v>
+      </c>
+      <c r="G125">
+        <v>-31.841227788203941</v>
+      </c>
+      <c r="H125">
+        <v>8.1338214877805758E-3</v>
+      </c>
+      <c r="I125">
+        <v>-31.860961150000001</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="3"/>
+        <v>-6.1935864719072427E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126">
+        <v>-6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126">
+        <v>-26.808752774665617</v>
+      </c>
+      <c r="G126">
+        <v>-26.850171590229849</v>
+      </c>
+      <c r="H126">
+        <v>1.96992758841486E-2</v>
+      </c>
+      <c r="I126">
+        <v>-26.82433103</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="3"/>
+        <v>9.6332543022038669E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127">
+        <v>-8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127">
+        <v>-23.708887223494319</v>
+      </c>
+      <c r="G127">
+        <v>-23.480181915590158</v>
+      </c>
+      <c r="H127">
+        <v>4.8505975310933674E-2</v>
+      </c>
+      <c r="I127">
+        <v>-23.56598516</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="3"/>
+        <v>-0.36409784622745639</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128">
+        <v>-4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128">
+        <v>-48.38039308085915</v>
+      </c>
+      <c r="G128">
+        <v>-48.445681226680058</v>
+      </c>
+      <c r="H128">
+        <v>1.1594626201306562E-2</v>
+      </c>
+      <c r="I128">
+        <v>-48.439700000000002</v>
+      </c>
+      <c r="J128">
+        <f>((G128-I128)/I128)*100</f>
+        <v>1.2347778124258193E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129">
+        <v>-6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129">
+        <v>-40.876976763620142</v>
+      </c>
+      <c r="G129">
+        <v>-40.929333870285014</v>
+      </c>
+      <c r="H129">
+        <v>2.786377276334169E-2</v>
+      </c>
+      <c r="I129">
+        <v>-40.779000000000003</v>
+      </c>
+      <c r="J129">
+        <f>((G129-I129)/I129)*100</f>
+        <v>0.3686551173030484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130">
+        <v>-8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130">
+        <v>-36.119039014675067</v>
+      </c>
+      <c r="G130">
+        <v>-35.764707893699764</v>
+      </c>
+      <c r="H130">
+        <v>5.7420490610683918E-2</v>
+      </c>
+      <c r="I130">
+        <v>-35.813299999999998</v>
+      </c>
+      <c r="J130">
+        <f>((G130-I130)/I130)*100</f>
+        <v>-0.13568173360241501</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>73</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135">
+        <v>-4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135">
+        <v>-15.790852843868866</v>
+      </c>
+      <c r="G135">
+        <v>-15.706984690000001</v>
+      </c>
+      <c r="H135">
+        <v>-15.766049300000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136">
+        <v>-4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>-15.680024676323185</v>
+      </c>
+      <c r="G136">
+        <v>-15.679642980000001</v>
+      </c>
+      <c r="H136">
+        <v>-15.766049300000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137">
+        <v>-4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137">
+        <v>-15.765651161969794</v>
+      </c>
+      <c r="G137">
+        <v>-15.80694989</v>
+      </c>
+      <c r="H137">
+        <v>-15.744</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138">
+        <v>-4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>-15.650286468159788</v>
+      </c>
+      <c r="G138">
+        <v>-15.64890772</v>
+      </c>
+      <c r="H138">
+        <v>-15.744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139">
+        <v>-8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139">
+        <v>-11.873288624996865</v>
+      </c>
+      <c r="G139">
+        <v>-12.05354462</v>
+      </c>
+      <c r="H139">
+        <v>-11.875287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140">
+        <v>-8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>-11.757886551923031</v>
+      </c>
+      <c r="G140">
+        <v>-11.977513910000001</v>
+      </c>
+      <c r="H140">
+        <v>-11.875287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>81</v>
+      </c>
+      <c r="B141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141">
+        <v>-12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141">
+        <v>-10.045660109235611</v>
+      </c>
+      <c r="G141">
+        <v>-9.8542471799999998</v>
+      </c>
+      <c r="H141" s="2">
+        <v>-10.0543472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="14:14" x14ac:dyDescent="0.2">
